--- a/static/AG_money/grimsley/saving_floridas_heartland/grimsley_campaign_finance.xlsx
+++ b/static/AG_money/grimsley/saving_floridas_heartland/grimsley_campaign_finance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraglorioso/Desktop/AG_money/grimsley/saving_floridas_heartland/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraglorioso/Desktop/ag-money-news-app/repo/static/AG_money/grimsley/saving_floridas_heartland/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="14380" windowHeight="17060" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14380" windowHeight="17060" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="totals" sheetId="1" r:id="rId1"/>
@@ -42624,10 +42624,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K458"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42679,7 +42679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -42708,7 +42708,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>558</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>558</v>
       </c>
@@ -42772,7 +42772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>558</v>
       </c>
@@ -42801,7 +42801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>558</v>
       </c>
@@ -42830,7 +42830,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>558</v>
       </c>
@@ -42894,7 +42894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>558</v>
       </c>
@@ -42987,7 +42987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>558</v>
       </c>
@@ -43016,7 +43016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>558</v>
       </c>
@@ -43045,7 +43045,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>558</v>
       </c>
@@ -43074,7 +43074,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>558</v>
       </c>
@@ -43103,7 +43103,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>558</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>558</v>
       </c>
@@ -43161,7 +43161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>558</v>
       </c>
@@ -43190,7 +43190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>558</v>
       </c>
@@ -43219,7 +43219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>558</v>
       </c>
@@ -43248,7 +43248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>558</v>
       </c>
@@ -43309,7 +43309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>558</v>
       </c>
@@ -43338,7 +43338,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>558</v>
       </c>
@@ -43367,7 +43367,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -43396,7 +43396,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>558</v>
       </c>
@@ -43428,7 +43428,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>558</v>
       </c>
@@ -43492,7 +43492,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>558</v>
       </c>
@@ -43521,7 +43521,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>558</v>
       </c>
@@ -43553,7 +43553,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -43582,7 +43582,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>558</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2178</v>
       </c>
@@ -43643,7 +43643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2178</v>
       </c>
@@ -43672,7 +43672,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2178</v>
       </c>
@@ -43704,7 +43704,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>558</v>
       </c>
@@ -43736,7 +43736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>558</v>
       </c>
@@ -43765,7 +43765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>558</v>
       </c>
@@ -43829,7 +43829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>558</v>
       </c>
@@ -43861,7 +43861,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>558</v>
       </c>
@@ -43893,7 +43893,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>558</v>
       </c>
@@ -43922,7 +43922,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>558</v>
       </c>
@@ -43951,7 +43951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>558</v>
       </c>
@@ -43983,7 +43983,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>558</v>
       </c>
@@ -44012,7 +44012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>558</v>
       </c>
@@ -44044,7 +44044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -44076,7 +44076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>558</v>
       </c>
@@ -44108,7 +44108,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>558</v>
       </c>
@@ -44140,7 +44140,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>558</v>
       </c>
@@ -44172,7 +44172,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>558</v>
       </c>
@@ -44204,7 +44204,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>558</v>
       </c>
@@ -44236,7 +44236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>558</v>
       </c>
@@ -44268,7 +44268,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>558</v>
       </c>
@@ -44300,7 +44300,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>558</v>
       </c>
@@ -44332,7 +44332,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -44364,7 +44364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>558</v>
       </c>
@@ -44396,7 +44396,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>558</v>
       </c>
@@ -44428,7 +44428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>558</v>
       </c>
@@ -44460,7 +44460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>558</v>
       </c>
@@ -44492,7 +44492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>558</v>
       </c>
@@ -44524,7 +44524,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>558</v>
       </c>
@@ -44556,7 +44556,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>558</v>
       </c>
@@ -44585,7 +44585,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>558</v>
       </c>
@@ -44614,7 +44614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>558</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>558</v>
       </c>
@@ -44678,7 +44678,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>558</v>
       </c>
@@ -44704,7 +44704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>558</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>558</v>
       </c>
@@ -44768,7 +44768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>558</v>
       </c>
@@ -44800,7 +44800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>558</v>
       </c>
@@ -44832,7 +44832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>558</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>558</v>
       </c>
@@ -44896,7 +44896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>558</v>
       </c>
@@ -44928,7 +44928,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>558</v>
       </c>
@@ -44957,7 +44957,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>558</v>
       </c>
@@ -44986,7 +44986,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>558</v>
       </c>
@@ -45018,7 +45018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>558</v>
       </c>
@@ -45050,7 +45050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>558</v>
       </c>
@@ -45082,7 +45082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>558</v>
       </c>
@@ -45114,7 +45114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>558</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>558</v>
       </c>
@@ -45178,7 +45178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>558</v>
       </c>
@@ -45210,7 +45210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>558</v>
       </c>
@@ -45239,7 +45239,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>558</v>
       </c>
@@ -54651,12 +54651,6 @@
       </c>
       <c r="J456" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C458">
-        <f>C8+C10+C11+C22+C39</f>
-        <v>130000</v>
       </c>
     </row>
   </sheetData>
@@ -54664,13 +54658,6 @@
     <filterColumn colId="1">
       <filters>
         <dateGroupItem year="2017" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Bill Galvano's PAC"/>
-        <filter val="Jack Latvala's PAC"/>
-        <filter val="Wilton Simpson's PAC"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:K85">
